--- a/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7982</v>
+        <v>8133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09947991491814046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02510984861338647</v>
+        <v>0.02500787511004978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2255596267198172</v>
+        <v>0.2298254239913172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7128</v>
+        <v>7176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06117374147368644</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1816883311552487</v>
+        <v>0.1829277348889909</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2417</v>
+        <v>2562</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12762</v>
+        <v>11856</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07933973584593662</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03238635102344433</v>
+        <v>0.03433871556448715</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1710282267748857</v>
+        <v>0.1588894272019358</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27404</v>
+        <v>27253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34497</v>
+        <v>34501</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9005200850818595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.774440373280183</v>
+        <v>0.7701745760086827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9748901513866135</v>
+        <v>0.9749921248899502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -836,7 +836,7 @@
         <v>36831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32103</v>
+        <v>32055</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>39231</v>
@@ -845,7 +845,7 @@
         <v>0.9388262585263135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8183116688447511</v>
+        <v>0.8170722651110093</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>68697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61855</v>
+        <v>62761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72200</v>
+        <v>72055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9206602641540633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8289717732251144</v>
+        <v>0.8411105727980648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9676136489765556</v>
+        <v>0.9656612844355129</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3000</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8235</v>
+        <v>8038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04500131381807005</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01402833642479889</v>
+        <v>0.01443139274315409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1235517984067474</v>
+        <v>0.1205919727770988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -982,19 +982,19 @@
         <v>13583</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7650</v>
+        <v>7547</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21851</v>
+        <v>22105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1387777619744413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07815891815954425</v>
+        <v>0.0771081156483364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2232568458817956</v>
+        <v>0.2258494963239702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>16582</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9409</v>
+        <v>9990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25965</v>
+        <v>25362</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1007869351757801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05719031007530651</v>
+        <v>0.06071948649129837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1578168381158049</v>
+        <v>0.154149313502437</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>63654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58419</v>
+        <v>58616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65719</v>
+        <v>65692</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.95499868618193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8764482015932524</v>
+        <v>0.8794080272229005</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9859716635752011</v>
+        <v>0.9855686072568459</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>83</v>
@@ -1053,19 +1053,19 @@
         <v>84292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76024</v>
+        <v>75770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90225</v>
+        <v>90328</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8612222380255588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7767431541182047</v>
+        <v>0.7741505036760299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9218410818404558</v>
+        <v>0.9228918843516636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>145</v>
@@ -1074,19 +1074,19 @@
         <v>147947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>138564</v>
+        <v>139167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>155120</v>
+        <v>154539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8992130648242199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.842183161884195</v>
+        <v>0.8458506864975633</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9428096899246934</v>
+        <v>0.9392805135087019</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7764</v>
+        <v>8042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05758922432913637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01768250449685459</v>
+        <v>0.01752574591017287</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1524232347130153</v>
+        <v>0.1578722382058131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>11093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5687</v>
+        <v>5570</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18810</v>
+        <v>18880</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1328147365295116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06809301085042754</v>
+        <v>0.06669116418313163</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2252099735372202</v>
+        <v>0.2260475788262839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1220,19 +1220,19 @@
         <v>14026</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8576</v>
+        <v>8125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23719</v>
+        <v>22323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.104316006883076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06378162530559082</v>
+        <v>0.06042829778310608</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1764018645262801</v>
+        <v>0.1660209579915234</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>48006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43176</v>
+        <v>42898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50039</v>
+        <v>50047</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9424107756708636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8475767652869848</v>
+        <v>0.8421277617941872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9823174955031454</v>
+        <v>0.9824742540898271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1270,19 +1270,19 @@
         <v>72428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64711</v>
+        <v>64641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77834</v>
+        <v>77951</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8671852634704884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7747900264627794</v>
+        <v>0.7739524211737164</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9319069891495723</v>
+        <v>0.9333088358168683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -1291,19 +1291,19 @@
         <v>120435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110742</v>
+        <v>112138</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125885</v>
+        <v>126336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.895683993116924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8235981354737199</v>
+        <v>0.8339790420084766</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9362183746944092</v>
+        <v>0.939571702216894</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2580</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6868</v>
+        <v>6966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04680381252258786</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01497086608674974</v>
+        <v>0.01492188076142627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1245907449494575</v>
+        <v>0.1263678423291171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>11659</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6023</v>
+        <v>6290</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18904</v>
+        <v>19315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1568908900733288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08104806075477491</v>
+        <v>0.08464406163692084</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2543789631575377</v>
+        <v>0.2599154632202347</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>14239</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8315</v>
+        <v>8097</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22751</v>
+        <v>22324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.110008608975048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06424390151187447</v>
+        <v>0.06255304621482795</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1757736549839916</v>
+        <v>0.1724728597418034</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>52542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48254</v>
+        <v>48156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54297</v>
+        <v>54299</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9531961874774122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8754092550505426</v>
+        <v>0.8736321576708831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9850291339132503</v>
+        <v>0.9850781192385738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -1487,19 +1487,19 @@
         <v>62654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55409</v>
+        <v>54998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68290</v>
+        <v>68023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8431091099266711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7456210368424625</v>
+        <v>0.7400845367797654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9189519392452252</v>
+        <v>0.9153559383630795</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -1508,19 +1508,19 @@
         <v>115197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106685</v>
+        <v>107112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121121</v>
+        <v>121339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8899913910249519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8242263450160083</v>
+        <v>0.8275271402581966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9357560984881255</v>
+        <v>0.9374469537851721</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>5149</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1765</v>
+        <v>2380</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9799</v>
+        <v>9487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1754603185453299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0601284039711721</v>
+        <v>0.08109520082166728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3338941858727087</v>
+        <v>0.3232854143115105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8676</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3546</v>
+        <v>3614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14730</v>
+        <v>15006</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2103594167467872</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08598223205632595</v>
+        <v>0.08761156723922039</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3571326417949582</v>
+        <v>0.3638152748025823</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1654,19 +1654,19 @@
         <v>13826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8315</v>
+        <v>7905</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21112</v>
+        <v>21389</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1958510639393026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.117782639151529</v>
+        <v>0.1119868919551379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2990645515848163</v>
+        <v>0.30298646693487</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>24198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19548</v>
+        <v>19860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27582</v>
+        <v>26967</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.82453968145467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6661058141272913</v>
+        <v>0.6767145856884884</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.939871596028828</v>
+        <v>0.9189047991783328</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1704,19 +1704,19 @@
         <v>32570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26516</v>
+        <v>26240</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37700</v>
+        <v>37632</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7896405832532127</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6428673582050415</v>
+        <v>0.636184725197418</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9140177679436741</v>
+        <v>0.9123884327607799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1725,19 +1725,19 @@
         <v>56767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49481</v>
+        <v>49204</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62278</v>
+        <v>62688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8041489360606974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7009354484151837</v>
+        <v>0.69701353306513</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.882217360848471</v>
+        <v>0.8880131080448621</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8485</v>
+        <v>8450</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0781271267708422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02000413237556911</v>
+        <v>0.01987217679108609</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1797875937081838</v>
+        <v>0.1790348371420379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1850,19 +1850,19 @@
         <v>9566</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4792</v>
+        <v>4563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17401</v>
+        <v>17397</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1360613337985507</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06816159967405969</v>
+        <v>0.06490258922255482</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2474967583810148</v>
+        <v>0.2474362931712858</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1871,19 +1871,19 @@
         <v>13254</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7053</v>
+        <v>7447</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21438</v>
+        <v>21845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1127918617464597</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06001954953580701</v>
+        <v>0.06337216291274594</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1824381338817968</v>
+        <v>0.1859049823440332</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>43509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38711</v>
+        <v>38746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46252</v>
+        <v>46258</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9218728732291578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8202124062918159</v>
+        <v>0.8209651628579623</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9799958676244309</v>
+        <v>0.9801278232089139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -1921,19 +1921,19 @@
         <v>60743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52908</v>
+        <v>52912</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65517</v>
+        <v>65746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8639386662014492</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7525032416189851</v>
+        <v>0.7525637068287132</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9318384003259402</v>
+        <v>0.935097410777445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -1942,19 +1942,19 @@
         <v>104252</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96068</v>
+        <v>95661</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>110453</v>
+        <v>110059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8872081382535403</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8175618661182033</v>
+        <v>0.8140950176559667</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9399804504641929</v>
+        <v>0.9366278370872541</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>4365</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1667</v>
+        <v>1683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9437</v>
+        <v>9691</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04120982621031204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01574161011538872</v>
+        <v>0.01589214373152176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08908433880266182</v>
+        <v>0.09148799104730794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2067,19 +2067,19 @@
         <v>4850</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1783</v>
+        <v>1931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10466</v>
+        <v>10988</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0414067798253399</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01522530230806159</v>
+        <v>0.01648703788207301</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0893642465733902</v>
+        <v>0.0938211328526708</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2088,19 +2088,19 @@
         <v>9215</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4566</v>
+        <v>4426</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16387</v>
+        <v>15798</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04131324487279804</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02047007975385898</v>
+        <v>0.01984287408675211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0734666922021364</v>
+        <v>0.07082752285802162</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>101563</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96491</v>
+        <v>96237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>104261</v>
+        <v>104245</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.958790173789688</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9109156611973384</v>
+        <v>0.9085120089526922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9842583898846113</v>
+        <v>0.9841078562684783</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>112</v>
@@ -2138,19 +2138,19 @@
         <v>112271</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106655</v>
+        <v>106133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115338</v>
+        <v>115190</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9585932201746601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9106357534266097</v>
+        <v>0.9061788671473289</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9847746976919384</v>
+        <v>0.983512962117927</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>215</v>
@@ -2159,19 +2159,19 @@
         <v>213834</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>206662</v>
+        <v>207251</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>218483</v>
+        <v>218623</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9586867551272019</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9265333077978639</v>
+        <v>0.9291724771419785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9795299202461411</v>
+        <v>0.9801571259132481</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>14666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8414</v>
+        <v>8618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22382</v>
+        <v>23160</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1310690614535659</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07519554436690233</v>
+        <v>0.07702335320953022</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.200026871321505</v>
+        <v>0.2069843798420797</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2284,19 +2284,19 @@
         <v>29268</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19777</v>
+        <v>20303</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39672</v>
+        <v>41196</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1910121991264644</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1290720083143762</v>
+        <v>0.1325027405139039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2589127043599432</v>
+        <v>0.2688582701273909</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2305,19 +2305,19 @@
         <v>43934</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33208</v>
+        <v>32616</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>58310</v>
+        <v>58065</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1657132659116267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1252577206007948</v>
+        <v>0.1230251745590416</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2199412973901222</v>
+        <v>0.2190172098351161</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>97227</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89511</v>
+        <v>88733</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>103479</v>
+        <v>103275</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8689309385464341</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7999731286784949</v>
+        <v>0.7930156201579204</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9248044556330977</v>
+        <v>0.92297664679047</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -2355,19 +2355,19 @@
         <v>123957</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113553</v>
+        <v>112029</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133448</v>
+        <v>132922</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8089878008735356</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7410872956400568</v>
+        <v>0.7311417298726092</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8709279916856241</v>
+        <v>0.8674972594860961</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>220</v>
@@ -2376,19 +2376,19 @@
         <v>221184</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>206808</v>
+        <v>207053</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>231910</v>
+        <v>232502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8342867340883733</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7800587026098778</v>
+        <v>0.7809827901648833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8747422793992051</v>
+        <v>0.8769748254409584</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>39901</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07940976007269224</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>83</v>
@@ -2501,19 +2501,19 @@
         <v>91095</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1345882867724461</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>126</v>
@@ -2522,19 +2522,19 @@
         <v>130996</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1110784540414075</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>462565</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>449814</v>
+        <v>448530</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>472593</v>
+        <v>471304</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9205902399273078</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8952126492366392</v>
+        <v>0.8926571718280908</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9405466229796545</v>
+        <v>0.9379822228743845</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>578</v>
@@ -2572,19 +2572,19 @@
         <v>585747</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>564887</v>
+        <v>565643</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>603010</v>
+        <v>601344</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8654117132275538</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8345923575381898</v>
+        <v>0.8357088243124026</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8909174410347418</v>
+        <v>0.8884559552910377</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1058</v>
@@ -2593,19 +2593,19 @@
         <v>1048312</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1023871</v>
+        <v>1026149</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1067352</v>
+        <v>1068877</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8889215459585925</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8681964241549595</v>
+        <v>0.8701284973651543</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9050661322027396</v>
+        <v>0.9063595793364043</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>6839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2897</v>
+        <v>2958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12216</v>
+        <v>13261</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1544473770929023</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06542012930791484</v>
+        <v>0.0667929529225493</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.275874668487173</v>
+        <v>0.2994715103251767</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2962,19 +2962,19 @@
         <v>22253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15906</v>
+        <v>15839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29634</v>
+        <v>29537</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4551282149866739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3253191130751582</v>
+        <v>0.3239410026530171</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6060854582720266</v>
+        <v>0.6041074528293626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2983,19 +2983,19 @@
         <v>29092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20693</v>
+        <v>20314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38373</v>
+        <v>39148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3122315685639776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2220884633419162</v>
+        <v>0.2180155963811654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.411836167448114</v>
+        <v>0.4201556160326592</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>37442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32065</v>
+        <v>31020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41384</v>
+        <v>41323</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8455526229070977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7241253315128269</v>
+        <v>0.7005284896748234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9345798706920853</v>
+        <v>0.9332070470774506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3033,19 +3033,19 @@
         <v>26641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19260</v>
+        <v>19357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32988</v>
+        <v>33055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5448717850133261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3939145417279732</v>
+        <v>0.3958925471706373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6746808869248418</v>
+        <v>0.6760589973469828</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -3054,19 +3054,19 @@
         <v>64083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54802</v>
+        <v>54027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72482</v>
+        <v>72861</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6877684314360224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5881638325518861</v>
+        <v>0.5798443839673411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7779115366580838</v>
+        <v>0.7819844036188346</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>12902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6440</v>
+        <v>5712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22595</v>
+        <v>21760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1628997636414221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08130404432060682</v>
+        <v>0.07211888377236453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2852802959874508</v>
+        <v>0.2747383325958004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3179,19 +3179,19 @@
         <v>34957</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24901</v>
+        <v>25965</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45983</v>
+        <v>45107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3424021475244056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2439047373687251</v>
+        <v>0.2543264685033447</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.450404890310705</v>
+        <v>0.4418234943869087</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -3200,19 +3200,19 @@
         <v>47859</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36714</v>
+        <v>36504</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63580</v>
+        <v>61358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2639829209974419</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2025079099336201</v>
+        <v>0.2013502709982054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3506949023154045</v>
+        <v>0.3384426331401917</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>66301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56608</v>
+        <v>57443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72763</v>
+        <v>73491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8371002363585779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7147197040125507</v>
+        <v>0.7252616674041996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9186959556793932</v>
+        <v>0.9278811162276356</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -3250,19 +3250,19 @@
         <v>67136</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56110</v>
+        <v>56986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77192</v>
+        <v>76128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6575978524755944</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.549595109689295</v>
+        <v>0.5581765056130914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7560952626312751</v>
+        <v>0.7456735314966554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>122</v>
@@ -3271,19 +3271,19 @@
         <v>133437</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117716</v>
+        <v>119938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>144582</v>
+        <v>144792</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7360170790025581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6493050976845957</v>
+        <v>0.6615573668598083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.79749209006638</v>
+        <v>0.7986497290017947</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>9267</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4115</v>
+        <v>4247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16536</v>
+        <v>17235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1662412010075349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07382520042835101</v>
+        <v>0.07618225357779609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2966581765502618</v>
+        <v>0.3091846256899231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3396,19 +3396,19 @@
         <v>18190</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10503</v>
+        <v>11143</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26084</v>
+        <v>26625</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2274677698616723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1313339727112158</v>
+        <v>0.1393414995050526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3261861965681907</v>
+        <v>0.332944221308448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3417,19 +3417,19 @@
         <v>27457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18294</v>
+        <v>19337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38554</v>
+        <v>38578</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2023192970608227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1348019388326233</v>
+        <v>0.1424876387345156</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2840881559214546</v>
+        <v>0.2842645778140508</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>46475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39206</v>
+        <v>38507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51627</v>
+        <v>51495</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8337587989924651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7033418234497381</v>
+        <v>0.6908153743100772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9261747995716489</v>
+        <v>0.9238177464222039</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -3467,19 +3467,19 @@
         <v>61778</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53884</v>
+        <v>53343</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69465</v>
+        <v>68825</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7725322301383276</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6738138034318092</v>
+        <v>0.667055778691552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8686660272887841</v>
+        <v>0.860658500494947</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -3488,19 +3488,19 @@
         <v>108253</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>97156</v>
+        <v>97132</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>117416</v>
+        <v>116373</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7976807029391774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7159118440785454</v>
+        <v>0.7157354221859494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8651980611673767</v>
+        <v>0.8575123612654845</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>8731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4169</v>
+        <v>4150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15112</v>
+        <v>15409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1363618282826784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06510683977546883</v>
+        <v>0.06481471661172375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2360190994117298</v>
+        <v>0.2406631837505428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3613,19 +3613,19 @@
         <v>20284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13785</v>
+        <v>13763</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29870</v>
+        <v>29052</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2370288038439662</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1610832124755475</v>
+        <v>0.1608358614340693</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3490575461964014</v>
+        <v>0.3394917230439363</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -3634,19 +3634,19 @@
         <v>29015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19936</v>
+        <v>20225</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40141</v>
+        <v>39617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1939446651550059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1332581590760399</v>
+        <v>0.1351915805136056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2683200693415702</v>
+        <v>0.2648161214420524</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>55297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48916</v>
+        <v>48619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59859</v>
+        <v>59878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8636381717173216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7639809005882702</v>
+        <v>0.7593368162494573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9348931602245312</v>
+        <v>0.9351852833882763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -3684,19 +3684,19 @@
         <v>65290</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55704</v>
+        <v>56522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71789</v>
+        <v>71811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7629711961560338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6509424538035986</v>
+        <v>0.6605082769560638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8389167875244525</v>
+        <v>0.8391641385659309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -3705,19 +3705,19 @@
         <v>120587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109461</v>
+        <v>109985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129666</v>
+        <v>129377</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.806055334844994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7316799306584297</v>
+        <v>0.7351838785579475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8667418409239601</v>
+        <v>0.8648084194863942</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>6705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2121177517543791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3830,19 +3830,19 @@
         <v>14595</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8623</v>
+        <v>8190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21289</v>
+        <v>20839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2927396609159557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.17295377280148</v>
+        <v>0.1642827196515313</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4270190302363603</v>
+        <v>0.4179909001074252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -3851,19 +3851,19 @@
         <v>21300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14159</v>
+        <v>13957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30415</v>
+        <v>30683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2614553850817842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1738011391882243</v>
+        <v>0.1713230751209674</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3733444319856909</v>
+        <v>0.3766272923359089</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>24907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19655</v>
+        <v>18568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28573</v>
+        <v>29227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7878822482456209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6217466833650414</v>
+        <v>0.5873571271286415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9038575556752682</v>
+        <v>0.9245593528841407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -3901,19 +3901,19 @@
         <v>35260</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28566</v>
+        <v>29016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41232</v>
+        <v>41665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7072603390840443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5729809697636397</v>
+        <v>0.5820090998925747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8270462271985201</v>
+        <v>0.8357172803484687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -3922,19 +3922,19 @@
         <v>60167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51052</v>
+        <v>50784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67308</v>
+        <v>67510</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7385446149182158</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6266555680143095</v>
+        <v>0.6233727076640906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8261988608117758</v>
+        <v>0.8286769248790326</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>11703</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6435</v>
+        <v>6400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18693</v>
+        <v>18125</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.226111042798956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1243316898082456</v>
+        <v>0.1236598365517441</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3611761639057203</v>
+        <v>0.3501996048854912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4047,19 +4047,19 @@
         <v>19108</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11872</v>
+        <v>12596</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26709</v>
+        <v>27391</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2721488540251473</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1690942344487449</v>
+        <v>0.179404030077694</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3804094522617814</v>
+        <v>0.3901214888100939</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -4068,19 +4068,19 @@
         <v>30811</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21236</v>
+        <v>21760</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41167</v>
+        <v>40421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2526130602489908</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1741087136967787</v>
+        <v>0.1784044254183196</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3375233274363511</v>
+        <v>0.3314082599368851</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>40053</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33063</v>
+        <v>33631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45321</v>
+        <v>45356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.773888957201044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6388238360942773</v>
+        <v>0.6498003951145088</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8756683101917544</v>
+        <v>0.8763401634482559</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -4118,19 +4118,19 @@
         <v>51104</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43503</v>
+        <v>42821</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58340</v>
+        <v>57616</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7278511459748527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6195905477382185</v>
+        <v>0.6098785111899061</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8309057655512551</v>
+        <v>0.820595969922306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>90</v>
@@ -4139,19 +4139,19 @@
         <v>91157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80801</v>
+        <v>81547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>100732</v>
+        <v>100208</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7473869397510091</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6624766725636489</v>
+        <v>0.6685917400631149</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8258912863032213</v>
+        <v>0.82159557458168</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>16508</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9272</v>
+        <v>10069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26625</v>
+        <v>27434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1470491784747261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08259495969391156</v>
+        <v>0.08969315572180285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2371654816843761</v>
+        <v>0.2443730275745689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -4264,19 +4264,19 @@
         <v>30951</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21772</v>
+        <v>21734</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43146</v>
+        <v>42998</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2180252464452155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1533668011692911</v>
+        <v>0.1530947708404642</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3039250987899206</v>
+        <v>0.3028826238421689</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -4285,19 +4285,19 @@
         <v>47460</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34530</v>
+        <v>35574</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63244</v>
+        <v>62769</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1866830021458108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1358245131359173</v>
+        <v>0.1399305969659266</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2487697751572132</v>
+        <v>0.246904228849307</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>95755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>85638</v>
+        <v>84829</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>102991</v>
+        <v>102194</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8529508215252739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7628345183156241</v>
+        <v>0.7556269724254304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9174050403060886</v>
+        <v>0.9103068442781971</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>102</v>
@@ -4335,19 +4335,19 @@
         <v>111011</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>98816</v>
+        <v>98964</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>120190</v>
+        <v>120228</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7819747535547845</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6960749012100794</v>
+        <v>0.6971173761578314</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8466331988307089</v>
+        <v>0.846905229159536</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>188</v>
@@ -4356,19 +4356,19 @@
         <v>206766</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>190982</v>
+        <v>191457</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>219696</v>
+        <v>218652</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8133169978541892</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7512302248427867</v>
+        <v>0.7530957711506929</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8641754868640827</v>
+        <v>0.8600694030340733</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>10880</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5565</v>
+        <v>5504</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20188</v>
+        <v>20440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09010189699907407</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0460878312863953</v>
+        <v>0.04558000165924925</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1671822812384689</v>
+        <v>0.1692759411448619</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4481,19 +4481,19 @@
         <v>32112</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22400</v>
+        <v>23074</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42665</v>
+        <v>44509</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1953107083262736</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1362405606269682</v>
+        <v>0.1403366873414514</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2594943951313948</v>
+        <v>0.2707067040532024</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -4502,19 +4502,19 @@
         <v>42992</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30582</v>
+        <v>32455</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56100</v>
+        <v>57648</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1507609833140871</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1072422748694661</v>
+        <v>0.113808934622263</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1967237107690182</v>
+        <v>0.2021539321440556</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>109872</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100564</v>
+        <v>100312</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115187</v>
+        <v>115248</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9098981030009259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.832817718761531</v>
+        <v>0.8307240588551384</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9539121687136047</v>
+        <v>0.954419998340751</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -4552,19 +4552,19 @@
         <v>132305</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>121752</v>
+        <v>119908</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>142017</v>
+        <v>141343</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8046892916737264</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7405056048686054</v>
+        <v>0.7292932959467976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8637594393730319</v>
+        <v>0.8596633126585487</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>219</v>
@@ -4573,19 +4573,19 @@
         <v>242177</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229069</v>
+        <v>227521</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>254587</v>
+        <v>252714</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8492390166859128</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8032762892309818</v>
+        <v>0.7978460678559444</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.892757725130534</v>
+        <v>0.8861910653777371</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>83535</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1492664998936019</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>176</v>
@@ -4698,19 +4698,19 @@
         <v>192450</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>168720</v>
+        <v>166780</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>217140</v>
+        <v>215353</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2590260808669191</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2270864013637616</v>
+        <v>0.224475628821827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2922577494977263</v>
+        <v>0.2898526126371199</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>248</v>
@@ -4719,19 +4719,19 @@
         <v>275985</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>249496</v>
+        <v>247130</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>311277</v>
+        <v>306910</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2118704236422067</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1915354371161057</v>
+        <v>0.1897191808320553</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.238964065513868</v>
+        <v>0.2356114363057071</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>476102</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>456910</v>
+        <v>456653</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>492779</v>
+        <v>492602</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8507335001063981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8164405996656411</v>
+        <v>0.8159799625183749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8805338025433268</v>
+        <v>0.8802165718382683</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>518</v>
@@ -4769,19 +4769,19 @@
         <v>550525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>525835</v>
+        <v>527622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>574255</v>
+        <v>576195</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7409739191330809</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7077422505022735</v>
+        <v>0.71014738736288</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7729135986362383</v>
+        <v>0.7755243711781729</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>950</v>
@@ -4790,19 +4790,19 @@
         <v>1026627</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>991335</v>
+        <v>995702</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1053116</v>
+        <v>1055482</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7881295763577932</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.761035934486132</v>
+        <v>0.7643885636942933</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8084645628838943</v>
+        <v>0.8102808191679449</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>9932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5058</v>
+        <v>5639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15056</v>
+        <v>15399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2553505172042912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.130039315460683</v>
+        <v>0.1449773189350422</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3870870968531223</v>
+        <v>0.395908737528249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5159,19 +5159,19 @@
         <v>18007</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11141</v>
+        <v>11041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25831</v>
+        <v>25060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.36458588587097</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2255766081955705</v>
+        <v>0.2235395940432845</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5229849317210381</v>
+        <v>0.5073765356738997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -5180,19 +5180,19 @@
         <v>27939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20062</v>
+        <v>19769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37529</v>
+        <v>37634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.316460929058449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2272406332656323</v>
+        <v>0.2239216700657772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4250844807272756</v>
+        <v>0.4262653350779843</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>28964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23840</v>
+        <v>23497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33838</v>
+        <v>33257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7446494827957088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6129129031468776</v>
+        <v>0.604091262471751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8699606845393171</v>
+        <v>0.8550226810649578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -5230,19 +5230,19 @@
         <v>31384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23560</v>
+        <v>24331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38250</v>
+        <v>38350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.63541411412903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4770150682789621</v>
+        <v>0.4926234643261002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7744233918044295</v>
+        <v>0.7764604059567155</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -5251,19 +5251,19 @@
         <v>60348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50758</v>
+        <v>50653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68225</v>
+        <v>68518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6835390709415511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5749155192727246</v>
+        <v>0.5737346649220157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7727593667343678</v>
+        <v>0.7760783299342228</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>5485</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1853</v>
+        <v>2262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11037</v>
+        <v>11724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06282944777608748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02123114751914691</v>
+        <v>0.0259141408828274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1264368727851014</v>
+        <v>0.1342989213718785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -5376,19 +5376,19 @@
         <v>25488</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15873</v>
+        <v>16108</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35663</v>
+        <v>36190</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2211949964431257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1377486898750588</v>
+        <v>0.1397951534829875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3094954024167878</v>
+        <v>0.3140700171231942</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -5397,19 +5397,19 @@
         <v>30973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20965</v>
+        <v>21127</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44020</v>
+        <v>43134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1529336127143446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1035214377427804</v>
+        <v>0.1043193412535094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2173559794221286</v>
+        <v>0.2129808103985036</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>81810</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76258</v>
+        <v>75571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85442</v>
+        <v>85033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9371705522239125</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8735631272148986</v>
+        <v>0.8657010786281215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.978768852480853</v>
+        <v>0.9740858591171725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -5447,19 +5447,19 @@
         <v>89740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79565</v>
+        <v>79038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99355</v>
+        <v>99120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7788050035568743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6905045975832121</v>
+        <v>0.6859299828768058</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8622513101249413</v>
+        <v>0.8602048465170126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>160</v>
@@ -5468,19 +5468,19 @@
         <v>171550</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158503</v>
+        <v>159389</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>181558</v>
+        <v>181396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8470663872856554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7826440205778713</v>
+        <v>0.7870191896014964</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8964785622572196</v>
+        <v>0.8956806587464902</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>5157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1659</v>
+        <v>2270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11071</v>
+        <v>10090</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08115692983576607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02610523302381046</v>
+        <v>0.03572578255161444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1742275008855492</v>
+        <v>0.1587870699330283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5593,19 +5593,19 @@
         <v>8177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3647</v>
+        <v>2608</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15454</v>
+        <v>16491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.102346004320914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04564450177373388</v>
+        <v>0.0326472623033701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1934276228889515</v>
+        <v>0.2064078788262878</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5614,19 +5614,19 @@
         <v>13334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7112</v>
+        <v>7579</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23212</v>
+        <v>23638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09295912910037477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04958093672342438</v>
+        <v>0.05283596659769992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1618204156596132</v>
+        <v>0.1647884360785655</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>58389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52475</v>
+        <v>53456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61887</v>
+        <v>61276</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9188430701642339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8257724991144511</v>
+        <v>0.8412129300669717</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9738947669761896</v>
+        <v>0.9642742174483856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -5664,19 +5664,19 @@
         <v>71720</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64443</v>
+        <v>63406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76250</v>
+        <v>77289</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.897653995679086</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8065723771110481</v>
+        <v>0.7935921211737124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9543554982262661</v>
+        <v>0.96735273769663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>129</v>
@@ -5685,19 +5685,19 @@
         <v>130109</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>120231</v>
+        <v>119805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136331</v>
+        <v>135864</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9070408708996253</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8381795843403871</v>
+        <v>0.8352115639214331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.950419063276576</v>
+        <v>0.9471640334022998</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>10965</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6270</v>
+        <v>6210</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17849</v>
+        <v>18048</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1694395432006389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09688518858675964</v>
+        <v>0.09596869279425652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2758186616677167</v>
+        <v>0.2789029215989558</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5810,19 +5810,19 @@
         <v>20388</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12492</v>
+        <v>12172</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30709</v>
+        <v>30417</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2226398661140861</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1364152943551468</v>
+        <v>0.1329208150082871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3353512156125103</v>
+        <v>0.3321596378716066</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -5831,19 +5831,19 @@
         <v>31353</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21494</v>
+        <v>21816</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42355</v>
+        <v>43032</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2006116929162539</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1375297760913293</v>
+        <v>0.1395923524156787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.271010597142023</v>
+        <v>0.2753444596081879</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>53747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46863</v>
+        <v>46664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58442</v>
+        <v>58502</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8305604567993611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7241813383322836</v>
+        <v>0.7210970784010443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9031148114132407</v>
+        <v>0.9040313072057434</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -5881,19 +5881,19 @@
         <v>71186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60865</v>
+        <v>61157</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79082</v>
+        <v>79402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7773601338859139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6646487843874896</v>
+        <v>0.6678403621283935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8635847056448532</v>
+        <v>0.8670791849917128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -5902,19 +5902,19 @@
         <v>124932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113930</v>
+        <v>113253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134791</v>
+        <v>134469</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7993883070837462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7289894028579773</v>
+        <v>0.724655540391812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8624702239086706</v>
+        <v>0.8604076475843213</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4991</v>
+        <v>5744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03833454112015272</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1186164695286173</v>
+        <v>0.1365036632813846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -6027,19 +6027,19 @@
         <v>11205</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5698</v>
+        <v>5653</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18518</v>
+        <v>17854</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2217327947191216</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1127658804698845</v>
+        <v>0.1118631546723879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3664573114010939</v>
+        <v>0.353330255899708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6048,19 +6048,19 @@
         <v>12818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7159</v>
+        <v>7013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21111</v>
+        <v>20207</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1384025186879486</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07730540460800521</v>
+        <v>0.07572404896513013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2279560938115904</v>
+        <v>0.2181933513613107</v>
       </c>
     </row>
     <row r="17">
@@ -6077,7 +6077,7 @@
         <v>40467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37089</v>
+        <v>36336</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>42080</v>
@@ -6086,7 +6086,7 @@
         <v>0.9616654588798472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8813835304713825</v>
+        <v>0.863496336718615</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6098,19 +6098,19 @@
         <v>39327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32014</v>
+        <v>32678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44834</v>
+        <v>44879</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7782672052808783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6335426885989062</v>
+        <v>0.646669744100293</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8872341195301156</v>
+        <v>0.8881368453276123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -6119,19 +6119,19 @@
         <v>79794</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71501</v>
+        <v>72405</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85453</v>
+        <v>85599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8615974813120514</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7720439061884096</v>
+        <v>0.7818066486386893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9226945953919949</v>
+        <v>0.9242759510348701</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>10019</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5552</v>
+        <v>5143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16121</v>
+        <v>15602</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2068135724609961</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1145965051675867</v>
+        <v>0.1061573851363494</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3327623817988939</v>
+        <v>0.3220522026885083</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -6244,19 +6244,19 @@
         <v>22105</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13635</v>
+        <v>13837</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31195</v>
+        <v>31067</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3280297099782345</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2023425955498704</v>
+        <v>0.205328006432011</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4629234580113952</v>
+        <v>0.4610108078112793</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -6265,19 +6265,19 @@
         <v>32125</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22764</v>
+        <v>23115</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42887</v>
+        <v>43140</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.277332606009577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1965210097682449</v>
+        <v>0.1995488228813332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3702490404265689</v>
+        <v>0.3724288205860727</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>38427</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32325</v>
+        <v>32844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42894</v>
+        <v>43303</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7931864275390038</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6672376182011059</v>
+        <v>0.6779477973114918</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8854034948324132</v>
+        <v>0.8938426148636507</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -6315,19 +6315,19 @@
         <v>45283</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36193</v>
+        <v>36321</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53753</v>
+        <v>53551</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6719702900217654</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5370765419886047</v>
+        <v>0.5389891921887203</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7976574044501294</v>
+        <v>0.7946719935679889</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -6336,19 +6336,19 @@
         <v>83709</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72947</v>
+        <v>72694</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93070</v>
+        <v>92719</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.722667393990423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6297509595734312</v>
+        <v>0.6275711794139286</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8034789902317551</v>
+        <v>0.8004511771186675</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>14698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8526</v>
+        <v>9027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22907</v>
+        <v>22660</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1310194451778595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07599892628744048</v>
+        <v>0.08046700357991587</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2041937964083453</v>
+        <v>0.2019896765343761</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -6461,19 +6461,19 @@
         <v>39752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29043</v>
+        <v>28306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53539</v>
+        <v>52009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2692784475715198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1967326451649907</v>
+        <v>0.1917423529534126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3626670063020755</v>
+        <v>0.3523082085729279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -6482,19 +6482,19 @@
         <v>54451</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41948</v>
+        <v>40933</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70684</v>
+        <v>67588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2095785086717386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.161455807912727</v>
+        <v>0.1575516309357526</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2720620598834914</v>
+        <v>0.2601449493196353</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>97487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>89278</v>
+        <v>89525</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>103659</v>
+        <v>103158</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8689805548221404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7958062035916542</v>
+        <v>0.7980103234656238</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9240010737125595</v>
+        <v>0.9195329964200841</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -6532,19 +6532,19 @@
         <v>107873</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>94086</v>
+        <v>95616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118582</v>
+        <v>119319</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7307215524284802</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6373329936979246</v>
+        <v>0.6476917914270727</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8032673548350093</v>
+        <v>0.8082576470465875</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>186</v>
@@ -6553,19 +6553,19 @@
         <v>205359</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>189126</v>
+        <v>192222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>217862</v>
+        <v>218877</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7904214913282614</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7279379401165086</v>
+        <v>0.7398550506803646</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8385441920872727</v>
+        <v>0.8424483690642474</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>12229</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6730</v>
+        <v>6859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20034</v>
+        <v>21105</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09114394802268772</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05016320300827749</v>
+        <v>0.051121299671039</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1493176369514403</v>
+        <v>0.1573057703443245</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -6678,19 +6678,19 @@
         <v>23627</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15835</v>
+        <v>15367</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36458</v>
+        <v>35620</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1340183880189497</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08982225416148713</v>
+        <v>0.08716523963181157</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2067983049510538</v>
+        <v>0.2020440748898623</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -6699,19 +6699,19 @@
         <v>35856</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24253</v>
+        <v>25636</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49946</v>
+        <v>50664</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1154900842202844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07811685179873924</v>
+        <v>0.082571697067297</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1608742014716459</v>
+        <v>0.1631869313410879</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>121939</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114134</v>
+        <v>113063</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127438</v>
+        <v>127309</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9088560519773122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8506823630485597</v>
+        <v>0.8426942296556754</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9498367969917227</v>
+        <v>0.9488787003289609</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>124</v>
@@ -6749,19 +6749,19 @@
         <v>152670</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>139839</v>
+        <v>140677</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>160462</v>
+        <v>160930</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8659816119810503</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.793201695048946</v>
+        <v>0.7979559251101368</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9101777458385129</v>
+        <v>0.9128347603681884</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>253</v>
@@ -6770,19 +6770,19 @@
         <v>274609</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>260519</v>
+        <v>259801</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>286212</v>
+        <v>284829</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8845099157797156</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8391257985283542</v>
+        <v>0.8368130686589123</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9218831482012609</v>
+        <v>0.9174283029327031</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>70098</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1185435682155047</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>133</v>
@@ -6895,19 +6895,19 @@
         <v>168749</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>143467</v>
+        <v>145972</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>194011</v>
+        <v>195591</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.216920463125211</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1844212478486017</v>
+        <v>0.1876409181414094</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2493932630837101</v>
+        <v>0.2514244434300952</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>210</v>
@@ -6916,19 +6916,19 @@
         <v>238847</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>210567</v>
+        <v>211551</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>267814</v>
+        <v>270154</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1744354311300117</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.153781921885389</v>
+        <v>0.1545002727097729</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1955905141284803</v>
+        <v>0.1972995935479556</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>521230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>506389</v>
+        <v>505290</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>535780</v>
+        <v>535143</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8814564317844953</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8563583245499513</v>
+        <v>0.8544997797640222</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9060628571416139</v>
+        <v>0.9049852157251188</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>522</v>
@@ -6966,19 +6966,19 @@
         <v>609182</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>583920</v>
+        <v>582340</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>634464</v>
+        <v>631959</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7830795368747889</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7506067369162895</v>
+        <v>0.7485755565699047</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.815578752151398</v>
+        <v>0.8123590818585906</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1072</v>
@@ -6987,19 +6987,19 @@
         <v>1130412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1101445</v>
+        <v>1099105</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1158692</v>
+        <v>1157708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8255645688699883</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8044094858715196</v>
+        <v>0.8027004064520443</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8462180781146109</v>
+        <v>0.8454997272902272</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>3181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>728</v>
+        <v>888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7433</v>
+        <v>7665</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0521919717026804</v>
+        <v>0.05219197170268039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01194216607453218</v>
+        <v>0.01456871796083306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1219418200830604</v>
+        <v>0.1257554221857513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -7356,19 +7356,19 @@
         <v>8508</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5053</v>
+        <v>5156</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13378</v>
+        <v>13138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1303442273050168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07740374786010641</v>
+        <v>0.07898565843789788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2049438372423736</v>
+        <v>0.2012710506337549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -7377,19 +7377,19 @@
         <v>11690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7259</v>
+        <v>7530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17837</v>
+        <v>18090</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09260586223346134</v>
+        <v>0.09260586223346137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05750212819614396</v>
+        <v>0.05965394001532196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1413011407915045</v>
+        <v>0.143306968541107</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>57774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53522</v>
+        <v>53290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60227</v>
+        <v>60067</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9478080282973196</v>
+        <v>0.9478080282973195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8780581799169402</v>
+        <v>0.8742445778142462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9880578339254678</v>
+        <v>0.9854312820391669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -7427,19 +7427,19 @@
         <v>56768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51898</v>
+        <v>52138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60223</v>
+        <v>60120</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8696557726949832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7950561627576263</v>
+        <v>0.7987289493662451</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9225962521398936</v>
+        <v>0.9210143415621022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -7448,19 +7448,19 @@
         <v>114541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108394</v>
+        <v>108141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118972</v>
+        <v>118701</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9073941377665385</v>
+        <v>0.9073941377665387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8586988592084954</v>
+        <v>0.856693031458893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9424978718038557</v>
+        <v>0.9403460599846779</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>10297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5576</v>
+        <v>5617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16851</v>
+        <v>17019</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1165154020453285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06309831563587402</v>
+        <v>0.06356367784657099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1906838753533895</v>
+        <v>0.1925853148589698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -7573,19 +7573,19 @@
         <v>37855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29345</v>
+        <v>29991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46423</v>
+        <v>46833</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2809958398021738</v>
+        <v>0.2809958398021737</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2178209803365238</v>
+        <v>0.2226212081587854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.344594602882502</v>
+        <v>0.3476310545144559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -7594,19 +7594,19 @@
         <v>48152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37745</v>
+        <v>38297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58136</v>
+        <v>58935</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2158405429201969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1691911951640418</v>
+        <v>0.1716666762504735</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2605923781584269</v>
+        <v>0.2641747900077625</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>78076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71522</v>
+        <v>71354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82797</v>
+        <v>82756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8834845979546715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8093161246466096</v>
+        <v>0.8074146851410303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9369016843641259</v>
+        <v>0.9364363221534291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>162</v>
@@ -7644,19 +7644,19 @@
         <v>96864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88296</v>
+        <v>87886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>105374</v>
+        <v>104728</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7190041601978263</v>
+        <v>0.7190041601978262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6554053971174976</v>
+        <v>0.6523689454855437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.782179019663476</v>
+        <v>0.7773787918412145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>246</v>
@@ -7665,19 +7665,19 @@
         <v>174940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164956</v>
+        <v>164157</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>185347</v>
+        <v>184795</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7841594570798032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7394076218415733</v>
+        <v>0.7358252099922377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8308088048359584</v>
+        <v>0.8283333237495265</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>17879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12529</v>
+        <v>12857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23042</v>
+        <v>23599</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2473454974729796</v>
+        <v>0.2473454974729795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1733282060637426</v>
+        <v>0.1778638570956719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3187595495640171</v>
+        <v>0.3264686632152133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -7790,19 +7790,19 @@
         <v>22713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17112</v>
+        <v>17441</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28580</v>
+        <v>28383</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2701840809171506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2035581528676104</v>
+        <v>0.2074724691825137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3399761288294615</v>
+        <v>0.3376221379452242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -7811,19 +7811,19 @@
         <v>40593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32471</v>
+        <v>32517</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48863</v>
+        <v>48333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.259625249645286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2076773613306944</v>
+        <v>0.2079765399345089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3125240763600204</v>
+        <v>0.3091292477944491</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>54406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49243</v>
+        <v>48686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59756</v>
+        <v>59428</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7526545025270206</v>
+        <v>0.7526545025270204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6812404504359831</v>
+        <v>0.6735313367847868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8266717939362577</v>
+        <v>0.8221361429043281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -7861,19 +7861,19 @@
         <v>61353</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55486</v>
+        <v>55683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66954</v>
+        <v>66625</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7298159190828494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6600238711705384</v>
+        <v>0.6623778620547757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7964418471323896</v>
+        <v>0.7925275308174863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>212</v>
@@ -7882,19 +7882,19 @@
         <v>115758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>107488</v>
+        <v>108018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123880</v>
+        <v>123834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7403747503547139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6874759236399794</v>
+        <v>0.6908707522055505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7923226386693056</v>
+        <v>0.792023460065491</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>7141</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3746</v>
+        <v>4162</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12240</v>
+        <v>12603</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08587581986621448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04505339290789389</v>
+        <v>0.05004562174544755</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1471943254488001</v>
+        <v>0.1515629463796723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -8007,19 +8007,19 @@
         <v>21869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16843</v>
+        <v>16309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27777</v>
+        <v>27210</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1978986654684204</v>
+        <v>0.1978986654684203</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1524242287020251</v>
+        <v>0.147583953953057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2513700677472924</v>
+        <v>0.2462392255396589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -8028,19 +8028,19 @@
         <v>29010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22817</v>
+        <v>22695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36948</v>
+        <v>36559</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1497968436171519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1178192180879604</v>
+        <v>0.1171907734774212</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1907898682745436</v>
+        <v>0.1887793425175727</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>76015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70916</v>
+        <v>70553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79410</v>
+        <v>78994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9141241801337856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8528056745511994</v>
+        <v>0.8484370536203276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.954946607092106</v>
+        <v>0.9499543782545524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>205</v>
@@ -8078,19 +8078,19 @@
         <v>88635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82727</v>
+        <v>83294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93661</v>
+        <v>94195</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8021013345315798</v>
+        <v>0.8021013345315797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7486299322527085</v>
+        <v>0.7537607744603414</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8475757712979749</v>
+        <v>0.8524160460469432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>312</v>
@@ -8099,19 +8099,19 @@
         <v>164650</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>156712</v>
+        <v>157101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170843</v>
+        <v>170965</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8502031563828482</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8092101317254564</v>
+        <v>0.8112206574824276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8821807819120399</v>
+        <v>0.8828092265225791</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>6159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3211</v>
+        <v>3543</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9675</v>
+        <v>9805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1710870108173458</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0891866437212972</v>
+        <v>0.09841956086617352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2687356309049022</v>
+        <v>0.272360492631024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -8224,19 +8224,19 @@
         <v>14097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10382</v>
+        <v>10220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18274</v>
+        <v>18226</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.231782829832394</v>
+        <v>0.2317828298323941</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1707030733928493</v>
+        <v>0.1680458473538635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3004623305599832</v>
+        <v>0.299671057095872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -8245,19 +8245,19 @@
         <v>20256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15469</v>
+        <v>15531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26111</v>
+        <v>26037</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.209213942227042</v>
+        <v>0.2092139422270421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1597677241330933</v>
+        <v>0.1604064100945204</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.26968341058394</v>
+        <v>0.2689261712343241</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>29842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26326</v>
+        <v>26196</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32790</v>
+        <v>32458</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8289129891826543</v>
+        <v>0.8289129891826539</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7312643690950977</v>
+        <v>0.7276395073689761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9108133562787025</v>
+        <v>0.9015804391338266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -8295,19 +8295,19 @@
         <v>46722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42545</v>
+        <v>42593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50437</v>
+        <v>50599</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7682171701676059</v>
+        <v>0.768217170167606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6995376694400168</v>
+        <v>0.7003289429041278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8292969266071507</v>
+        <v>0.8319541526461363</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -8316,19 +8316,19 @@
         <v>76564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70709</v>
+        <v>70783</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81351</v>
+        <v>81289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.790786057772958</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7303165894160598</v>
+        <v>0.7310738287656761</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8402322758669066</v>
+        <v>0.8395935899054794</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>13643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9967</v>
+        <v>9873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18658</v>
+        <v>18331</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2265431011797368</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1655059634919381</v>
+        <v>0.1639454180471867</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3098111113803622</v>
+        <v>0.3043869138094422</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -8441,19 +8441,19 @@
         <v>22158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17444</v>
+        <v>17814</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26991</v>
+        <v>27129</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3291968586985458</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2591563753424999</v>
+        <v>0.2646645353999054</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4009967844429606</v>
+        <v>0.4030544689542833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -8462,19 +8462,19 @@
         <v>35801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29664</v>
+        <v>29575</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41719</v>
+        <v>41874</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2807213989282257</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2325975952917077</v>
+        <v>0.2319035989814801</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.327122045078826</v>
+        <v>0.3283412678524394</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>46581</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41566</v>
+        <v>41893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50257</v>
+        <v>50351</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7734568988202633</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6901888886196377</v>
+        <v>0.6956130861905579</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8344940365080619</v>
+        <v>0.8360545819528137</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -8512,19 +8512,19 @@
         <v>45151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40318</v>
+        <v>40180</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49865</v>
+        <v>49495</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6708031413014542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5990032155570396</v>
+        <v>0.5969455310457169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7408436246575001</v>
+        <v>0.7353354646000949</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>217</v>
@@ -8533,19 +8533,19 @@
         <v>91731</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85813</v>
+        <v>85658</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97868</v>
+        <v>97957</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7192786010717742</v>
+        <v>0.7192786010717743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6728779549211737</v>
+        <v>0.6716587321475609</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7674024047082922</v>
+        <v>0.7680964010185198</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>17194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10480</v>
+        <v>10266</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25694</v>
+        <v>26192</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1143717677004755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06971081498469266</v>
+        <v>0.06828760821336662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1709079328292567</v>
+        <v>0.1742213495710998</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -8658,19 +8658,19 @@
         <v>39505</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31141</v>
+        <v>30820</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49441</v>
+        <v>48905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2426161528002011</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1912486760963522</v>
+        <v>0.189274772620033</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3036359610949215</v>
+        <v>0.3003416023798067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>75</v>
@@ -8679,19 +8679,19 @@
         <v>56700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45997</v>
+        <v>45177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70050</v>
+        <v>69094</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1810520170275987</v>
+        <v>0.1810520170275986</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1468765473248391</v>
+        <v>0.1442573230250842</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2236817895931953</v>
+        <v>0.2206300091423165</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>133143</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>124643</v>
+        <v>124145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>139857</v>
+        <v>140071</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8856282322995245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8290920671707432</v>
+        <v>0.8257786504289004</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9302891850153074</v>
+        <v>0.9317123917866342</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -8729,19 +8729,19 @@
         <v>123325</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>113389</v>
+        <v>113925</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>131689</v>
+        <v>132010</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.757383847199799</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6963640389050785</v>
+        <v>0.6996583976201934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8087513239036476</v>
+        <v>0.810725227379967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>331</v>
@@ -8750,19 +8750,19 @@
         <v>256468</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>243118</v>
+        <v>244074</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>267171</v>
+        <v>267991</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8189479829724013</v>
+        <v>0.8189479829724011</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7763182104068049</v>
+        <v>0.7793699908576834</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8531234526751608</v>
+        <v>0.8557426769749158</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>14869</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9777</v>
+        <v>9513</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22674</v>
+        <v>22107</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09127330358170181</v>
+        <v>0.0912733035817018</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06001594414855516</v>
+        <v>0.05839937710333391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1391882618199045</v>
+        <v>0.1357078059353158</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -8875,19 +8875,19 @@
         <v>39877</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30253</v>
+        <v>30818</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49012</v>
+        <v>49372</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.188444140588982</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.14296664216777</v>
+        <v>0.1456327134749456</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2316120746209939</v>
+        <v>0.2333142559170447</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -8896,19 +8896,19 @@
         <v>54746</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44223</v>
+        <v>44897</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67481</v>
+        <v>66769</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1461778752178711</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1180810172669225</v>
+        <v>0.1198801483765322</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1801826961511335</v>
+        <v>0.1782817140238332</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>148033</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140228</v>
+        <v>140795</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>153125</v>
+        <v>153389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9087266964182983</v>
+        <v>0.9087266964182984</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8608117381800946</v>
+        <v>0.8642921940646817</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9399840558514451</v>
+        <v>0.9416006228966659</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>281</v>
@@ -8946,19 +8946,19 @@
         <v>171735</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162600</v>
+        <v>162240</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>181359</v>
+        <v>180794</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.811555859411018</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7683879253790065</v>
+        <v>0.766685744082955</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8570333578322302</v>
+        <v>0.8543672865250542</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>494</v>
@@ -8967,19 +8967,19 @@
         <v>319767</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307032</v>
+        <v>307744</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>330290</v>
+        <v>329616</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8538221247821289</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8198173038488665</v>
+        <v>0.8217182859761667</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8819189827330777</v>
+        <v>0.8801198516234677</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>90364</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>76793</v>
+        <v>77903</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>107061</v>
+        <v>108281</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1265191755149686</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.107518593019347</v>
+        <v>0.1090724252550989</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1498971791544236</v>
+        <v>0.1516048100562587</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>386</v>
@@ -9092,19 +9092,19 @@
         <v>206583</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>188855</v>
+        <v>188566</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>225571</v>
+        <v>227296</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2302692797177392</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2105090839735098</v>
+        <v>0.2101863468184201</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2514352744746131</v>
+        <v>0.2533576031726413</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>526</v>
@@ -9113,19 +9113,19 @@
         <v>296947</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>273440</v>
+        <v>274051</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>321450</v>
+        <v>321807</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1842824470834792</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1696941726477344</v>
+        <v>0.1700733049316157</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1994889020732241</v>
+        <v>0.1997102230548681</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>623868</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>607171</v>
+        <v>605951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>637439</v>
+        <v>636329</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8734808244850314</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8501028208455765</v>
+        <v>0.8483951899437413</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.892481406980653</v>
+        <v>0.8909275747449011</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1310</v>
@@ -9163,19 +9163,19 @@
         <v>690552</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>671564</v>
+        <v>669839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>708280</v>
+        <v>708569</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7697307202822607</v>
+        <v>0.7697307202822609</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.748564725525387</v>
+        <v>0.7466423968273588</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7894909160264902</v>
+        <v>0.7898136531815799</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2194</v>
@@ -9184,19 +9184,19 @@
         <v>1314421</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1289918</v>
+        <v>1289561</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1337928</v>
+        <v>1337317</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8157175529165208</v>
+        <v>0.8157175529165207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8005110979267761</v>
+        <v>0.8002897769451318</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.830305827352266</v>
+        <v>0.8299266950683842</v>
       </c>
     </row>
     <row r="30">
